--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -548,11 +548,11 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>405</v>
+        <v>934</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Atrial Fibrillation or Flutter</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C4">
@@ -561,144 +561,105 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>410</v>
+        <v>938</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acute Urinary tract infections UTI</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>411</v>
+        <v>965</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sepsis or Septic Shock</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>934</v>
+        <v>967</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>938</v>
+        <v>1081</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C8">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>965</v>
+        <v>1088</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Deep Vein Thrombosis (DVT)</t>
         </is>
       </c>
       <c r="C9">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>967</v>
+        <v>1090</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>Pulmonary Embolism</t>
         </is>
       </c>
       <c r="C10">
-        <v>180</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1081</v>
+        <v>1104</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction including its complications</t>
+          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
         </is>
       </c>
       <c r="C11">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1088</v>
+        <v>1105</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
+          <t>Clostridium difficile - first episode</t>
         </is>
       </c>
       <c r="C12">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>1090</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Pulmonary Embolism</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>1104</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>1105</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Clostridium difficile - first episode</t>
-        </is>
-      </c>
-      <c r="C15">
         <v>0</v>
       </c>
     </row>

--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -548,11 +548,11 @@
     </row>
     <row r="4">
       <c r="A4">
-        <v>934</v>
+        <v>405</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Atrial Fibrillation or Flutter</t>
         </is>
       </c>
       <c r="C4">
@@ -561,105 +561,183 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>938</v>
+        <v>410</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Acute Urinary tract infections UTI</t>
         </is>
       </c>
       <c r="C5">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>965</v>
+        <v>411</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Sepsis or Septic Shock</t>
         </is>
       </c>
       <c r="C6">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>967</v>
+        <v>463</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>Sepsis</t>
         </is>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1081</v>
+        <v>507</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction including its complications</t>
+          <t>Pneumonia</t>
         </is>
       </c>
       <c r="C8">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1088</v>
+        <v>513</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
+          <t>Atrial fibrillation</t>
         </is>
       </c>
       <c r="C9">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1090</v>
+        <v>934</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Pulmonary Embolism</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C10">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1104</v>
+        <v>938</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
+        <v>965</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>3-point MACE</t>
+        </is>
+      </c>
+      <c r="C12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>967</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>4-point MACE</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1081</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Acute Myocardial Infarction including its complications</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1088</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Deep Vein Thrombosis (DVT)</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16">
+        <v>1090</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Pulmonary Embolism</t>
+        </is>
+      </c>
+      <c r="C16">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17">
+        <v>1104</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
+        </is>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18">
         <v>1105</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>Clostridium difficile - first episode</t>
         </is>
       </c>
-      <c r="C12">
+      <c r="C18">
         <v>0</v>
       </c>
     </row>

--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -715,32 +715,6 @@
         <v>365</v>
       </c>
     </row>
-    <row r="17">
-      <c r="A17">
-        <v>1104</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
-        </is>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18">
-        <v>1105</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Clostridium difficile - first episode</t>
-        </is>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -376,7 +376,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Non-Emergent Major Non Cardiac Surgery</t>
+          <t>Non-Emergent Major Non Cardiac Surgery among adults</t>
         </is>
       </c>
     </row>
@@ -386,7 +386,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AAA repair</t>
+          <t>AAA repair among adults with new onset atrial fibrillation after surgery</t>
         </is>
       </c>
     </row>
@@ -396,7 +396,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Lower Extremity Bypass</t>
+          <t>Lower Extremity Bypass among adults</t>
         </is>
       </c>
     </row>
@@ -406,7 +406,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Carotid Endarterectomy</t>
+          <t>Carotid Endarterectomy among adults</t>
         </is>
       </c>
     </row>
@@ -416,7 +416,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lung Resection</t>
+          <t>Lung Resection among adults</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Esophagectomy</t>
+          <t>Esophagectomy among adults</t>
         </is>
       </c>
     </row>
@@ -436,7 +436,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pancreatectomy</t>
+          <t>Pancreatectomy among adults</t>
         </is>
       </c>
     </row>
@@ -446,7 +446,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Colectomy</t>
+          <t>Colectomy among adults</t>
         </is>
       </c>
     </row>
@@ -456,7 +456,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Cystectomy</t>
+          <t>Cystectomy among adults</t>
         </is>
       </c>
     </row>
@@ -466,7 +466,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Nephrectomy</t>
+          <t>Nephrectomy among adults</t>
         </is>
       </c>
     </row>
@@ -476,7 +476,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Coronary Artery Bypass Graft Surgery</t>
+          <t>Coronary Artery Bypass Graft Surgery among adults</t>
         </is>
       </c>
     </row>
@@ -486,7 +486,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Aortic or Mitral Valve Repair or Replacement'</t>
+          <t>Aortic or Mitral Valve Repair or Replacement among adults</t>
         </is>
       </c>
     </row>
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -561,157 +561,92 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>410</v>
+        <v>934</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Acute Urinary tract infections UTI</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>411</v>
+        <v>938</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sepsis or Septic Shock</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>463</v>
+        <v>965</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sepsis</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>507</v>
+        <v>967</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Pneumonia</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>513</v>
+        <v>1081</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Atrial fibrillation</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>934</v>
+        <v>1088</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Deep Vein Thrombosis (DVT)</t>
         </is>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>938</v>
+        <v>1090</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Pulmonary Embolism</t>
         </is>
       </c>
       <c r="C11">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12">
-        <v>965</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>3-point MACE</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13">
-        <v>967</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>4-point MACE</t>
-        </is>
-      </c>
-      <c r="C13">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14">
-        <v>1081</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Acute Myocardial Infarction including its complications</t>
-        </is>
-      </c>
-      <c r="C14">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15">
-        <v>1088</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16">
-        <v>1090</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Pulmonary Embolism</t>
-        </is>
-      </c>
-      <c r="C16">
         <v>365</v>
       </c>
     </row>

--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -530,7 +530,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3">
@@ -556,7 +556,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="5">

--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -561,50 +561,50 @@
     </row>
     <row r="5">
       <c r="A5">
-        <v>934</v>
+        <v>411</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Sepsis or Septic Shock</t>
         </is>
       </c>
       <c r="C5">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>965</v>
+        <v>938</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C8">
@@ -613,24 +613,24 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>1081</v>
+        <v>967</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction including its complications</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C9">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C10">
@@ -639,14 +639,27 @@
     </row>
     <row r="11">
       <c r="A11">
+        <v>1088</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Deep Vein Thrombosis (DVT)</t>
+        </is>
+      </c>
+      <c r="C11">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12">
         <v>1090</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>Pulmonary Embolism</t>
         </is>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>365</v>
       </c>
     </row>

--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -569,7 +569,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">

--- a/analysis_specifications/analysis2_evan_1.xlsx
+++ b/analysis_specifications/analysis2_evan_1.xlsx
@@ -497,7 +497,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -574,11 +574,11 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>934</v>
+        <v>861</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Earliest event of Urinary tract infections (UTI)</t>
         </is>
       </c>
       <c r="C6">
@@ -587,37 +587,37 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>938</v>
+        <v>934</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C7">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>965</v>
+        <v>938</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C8">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C9">
@@ -626,24 +626,24 @@
     </row>
     <row r="10">
       <c r="A10">
-        <v>1081</v>
+        <v>967</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction including its complications</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C10">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1088</v>
+        <v>1081</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C11">
@@ -652,15 +652,54 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pulmonary Embolism</t>
+          <t>Deep Vein Thrombosis (DVT)</t>
         </is>
       </c>
       <c r="C12">
         <v>365</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13">
+        <v>1090</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Pulmonary Embolism</t>
+        </is>
+      </c>
+      <c r="C13">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14">
+        <v>1104</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
+        </is>
+      </c>
+      <c r="C14">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15">
+        <v>1105</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Clostridium difficile - first episode</t>
+        </is>
+      </c>
+      <c r="C15">
+        <v>9999</v>
       </c>
     </row>
   </sheetData>
